--- a/spreadsheet/macrofree/azureblobstorage_sg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/azureblobstorage_sg_checklist.es.xlsx
@@ -1129,7 +1129,7 @@
       <c r="B10" s="21" t="n"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Como parte de la estrategia de copia de seguridad y recuperación, habilite las opciones de eliminación temporal de contenedor, eliminación temporal de blobs, control de versiones y restauración a un momento dado.</t>
+          <t>Como parte de la estrategia de copia de seguridad y recuperación, habilite las opciones de eliminación temporal de contenedores, eliminación temporal de blobs, control de versiones y restauración a un momento dado.</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Comience con acceso cero y, a continuación, autorice gradualmente los niveles más bajos de acceso necesarios para los clientes y los servicios a fin de minimizar el riesgo de crear aperturas innecesarias para los atacantes.</t>
+          <t>Comience con acceso cero y, a continuación, autorice gradualmente los niveles más bajos de acceso necesarios para los clientes y servicios a fin de minimizar el riesgo de crear aperturas innecesarias para los atacantes.</t>
         </is>
       </c>
       <c r="E13" s="21" t="n"/>
@@ -1299,12 +1299,12 @@
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>No permitir la autorización de clave compartida. Esto deshabilita no solo el acceso a la clave de cuenta, sino también los tokens de firma de acceso compartido de cuenta y servicio, ya que se basan en claves de cuenta.</t>
+          <t>No permitir la autorización de clave compartida. Esto deshabilita no solo el acceso a la clave de cuenta, sino también a los tokens de firma de acceso compartido de cuenta y servicio, ya que se basan en claves de cuenta.</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Solo se permiten las solicitudes protegidas que estén autorizadas con el identificador de Microsoft Entra.</t>
+          <t>Solo se permiten las solicitudes protegidas autorizadas con el identificador de Microsoft Entra.</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1367,7 +1367,7 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Se recomienda no usar tokens de firma de acceso compartido. Evalúe si necesita tokens de firma de acceso compartido para proteger el acceso a los recursos de Blob Storage. Si debe crear una, revise esta lista de prácticas recomendadas para la firma de acceso compartido antes de crearla y distribuirla.</t>
+          <t>Se recomienda no usar tokens de firma de acceso compartido. Evalúe si necesita tokens de firma de acceso compartido para proteger el acceso a los recursos de Blob Storage. Si debe crear una, revise esta lista de prácticas recomendadas para firmas de acceso compartido antes de crearla y distribuirla.</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
@@ -1469,12 +1469,12 @@
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Empaquete archivos pequeños en archivos más grandes antes de moverlos a niveles más esporádicos. Puede utilizar formatos de archivo como TAR o ZIP.</t>
+          <t>Empaqueta archivos pequeños en archivos más grandes antes de moverlos a niveles más esporádicos. Puede utilizar formatos de archivo como TAR o ZIP.</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>Los niveles de esporádico tienen costos de transferencia de datos más altos. Al tener menos archivos grandes, puede reducir el número de operaciones necesarias para transferir datos.</t>
+          <t>Los niveles más esporádicos tienen costos de transferencia de datos más altos. Al tener menos archivos grandes, puede reducir el número de operaciones necesarias para transferir datos.</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1537,12 +1537,12 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Reduzca el costo de usar registros de recursos eligiendo la ubicación de almacenamiento de registros adecuada y administrando los períodos de retención de registros. Si solo planea consultar registros ocasionalmente (por ejemplo, consultar registros para auditoría de cumplimiento), considere la posibilidad de enviar registros de recursos a una cuenta de almacenamiento en lugar de enviarlos a un área de trabajo de registros de Azure Monitor. Puede usar una solución de consulta sin servidor, como Azure Synapse Analytics, para analizar los registros. Para obtener más información, consulte Optimización del costo para consultas poco frecuentes. Utilice políticas de administración del ciclo de vida para eliminar o archivar registros.</t>
+          <t>Reduzca el costo del uso de registros de recursos eligiendo la ubicación de almacenamiento de registros adecuada y administrando los períodos de retención de registros. Si solo planea consultar registros ocasionalmente (por ejemplo, consultar registros para auditoría de cumplimiento), considere la posibilidad de enviar registros de recursos a una cuenta de almacenamiento en lugar de enviarlos a un área de trabajo de registros de Azure Monitor. Puede usar una solución de consulta sin servidor, como Azure Synapse Analytics, para analizar los registros. Para obtener más información, consulte Optimización del costo para consultas poco frecuentes. Utilice políticas de administración del ciclo de vida para eliminar o archivar registros.</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>Almacenar registros de recursos en una cuenta de almacenamiento para su posterior análisis puede ser una opción más económica. El uso de políticas de administración del ciclo de vida para administrar la retención de registros en una cuenta de almacenamiento evita que se acumule un gran número de archivos de registros con el tiempo, lo que puede provocar cargos de capacidad innecesarios.</t>
+          <t>Almacenar registros de recursos en una cuenta de almacenamiento para su posterior análisis puede ser una opción más económica. El uso de directivas de administración del ciclo de vida para administrar la retención de registros en una cuenta de almacenamiento evita que se acumule un gran número de archivos de registros con el tiempo, lo que puede provocar cargos de capacidad innecesarios.</t>
         </is>
       </c>
       <c r="E22" s="21" t="n"/>
@@ -1571,7 +1571,7 @@
       <c r="B23" s="21" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Si habilita el control de versiones, use una política de administración del ciclo de vida para eliminar automáticamente las versiones antiguas de los blobs.</t>
+          <t>Si habilita el control de versiones, use una política de administración del ciclo de vida para eliminar automáticamente las versiones antiguas de blobs.</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Cada vez que se sobrescribe un blob, se agrega una nueva versión, lo que aumenta los cargos por capacidad de almacenamiento. Para reducir los cargos de capacidad, almacene los datos que se sobrescriben con frecuencia en una cuenta de almacenamiento independiente con el control de versiones deshabilitado.</t>
+          <t>Cada vez que se sobrescribe un blob, se agrega una nueva versión, lo que aumenta los cargos por capacidad de almacenamiento. Para reducir los cargos de capacidad, almacene los datos sobrescritos con frecuencia en una cuenta de almacenamiento independiente con el control de versiones deshabilitado.</t>
         </is>
       </c>
       <c r="E24" s="21" t="n"/>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>Puede realizar un seguimiento del estado y el funcionamiento de cada una de sus cuentas. Cree fácilmente paneles e informes que las partes interesadas pueden usar para realizar un seguimiento del estado de sus cuentas de almacenamiento.</t>
+          <t>Puede realizar un seguimiento del estado y el funcionamiento de cada una de sus cuentas. Cree fácilmente paneles e informes que las partes interesadas puedan usar para realizar un seguimiento del estado de sus cuentas de almacenamiento.</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
@@ -1806,7 +1806,7 @@
       <c r="B30" s="21" t="n"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione cuentas de almacenamiento en la misma región donde se colocan los recursos dependientes. En el caso de las aplicaciones que no están hospedadas en Azure, como aplicaciones de dispositivos móviles o servicios empresariales locales, ubique la cuenta de almacenamiento en una región más cercana a esos clientes. Para obtener más información, consulte Geografías de Azure. Si los clientes de una región diferente no requieren los mismos datos, cree una cuenta independiente en cada región. Si los clientes de una región diferente solo requieren algunos datos, considere la posibilidad de usar una directiva de replicación de objetos para copiar de forma asincrónica los objetos relevantes en una cuenta de almacenamiento de la otra región.</t>
+          <t>Aprovisione cuentas de almacenamiento en la misma región donde se colocan los recursos dependientes. En el caso de las aplicaciones que no están hospedadas en Azure, como las aplicaciones de dispositivos móviles o los servicios empresariales locales, ubique la cuenta de almacenamiento en una región más cercana a esos clientes. Para más información, consulte Geografías de Azure. Si los clientes de una región diferente no requieren los mismos datos, cree una cuenta independiente en cada región. Si los clientes de una región diferente solo requieren algunos datos, considere la posibilidad de usar una directiva de replicación de objetos para copiar de forma asincrónica los objetos relevantes en una cuenta de almacenamiento de la otra región.</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
@@ -1906,12 +1906,12 @@
       <c r="B33" s="21" t="n"/>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Al cargar blobs o bloques, use un tamaño de blob o bloque superior a 256 KiB.</t>
+          <t>Al cargar blobs o bloques, use un tamaño de blob o bloque superior a 256 KB.</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>Los tamaños de blob o bloque superiores a 256 KiB aprovechan las mejoras de rendimiento de la plataforma creadas específicamente para blobs y tamaños de bloque más grandes.</t>
+          <t>Los tamaños de blob o bloque superiores a 256 KB aprovechan las mejoras de rendimiento de la plataforma, creadas específicamente para blobs y tamaños de bloque más grandes.</t>
         </is>
       </c>
       <c r="E33" s="21" t="n"/>
@@ -6350,7 +6350,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Este control aún no se ha examinado</t>
+          <t>Esta comprobación aún no se ha examinado</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">

--- a/spreadsheet/macrofree/azureblobstorage_sg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/azureblobstorage_sg_checklist.es.xlsx
@@ -1129,12 +1129,12 @@
       <c r="B10" s="21" t="n"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Como parte de la estrategia de copia de seguridad y recuperación, habilite las opciones de eliminación temporal de contenedores, eliminación temporal de blobs, control de versiones y restauración a un momento dado.</t>
+          <t>Como parte de la estrategia de copia de seguridad y recuperación, habilite las opciones de eliminación temporal de contenedor, eliminación temporal de blobs, control de versiones y restauración a un momento dado.</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>La opción de eliminación temporal permite que una cuenta de almacenamiento recupere contenedores y blobs eliminados. La opción de control de versiones realiza automáticamente un seguimiento de los cambios realizados en los blobs. Esta opción permite restaurar un blob a un estado anterior. La opción de restauración a un momento dado protege contra la eliminación accidental o los daños de blobs y permite restaurar los datos de blobs en bloques a un estado anterior. Para obtener más información, consulte Información general sobre la protección de datos.</t>
+          <t>La opción de eliminación temporal permite que una cuenta de almacenamiento recupere contenedores y blobs eliminados. La opción de control de versiones realiza automáticamente un seguimiento de los cambios realizados en los blobs. Esta opción permite restaurar un blob a un estado anterior. La opción de restauración a un momento dado protege contra la eliminación accidental de blobs o daños y permite restaurar los datos de blobs en bloques a un estado anterior. Para obtener más información, consulte Información general sobre la protección de datos.</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1299,12 +1299,12 @@
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>No permitir la autorización de clave compartida. Esto deshabilita no solo el acceso a la clave de cuenta, sino también a los tokens de firma de acceso compartido de cuenta y servicio, ya que se basan en claves de cuenta.</t>
+          <t>No permitir la autorización de clave compartida. Esto deshabilita no solo el acceso a la clave de cuenta, sino también los tokens de firma de acceso compartido de cuenta y servicio, ya que se basan en claves de cuenta.</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Solo se permiten las solicitudes protegidas autorizadas con el identificador de Microsoft Entra.</t>
+          <t>Solo se permiten las solicitudes protegidas que están autorizadas con el identificador de Microsoft Entra.</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1367,7 +1367,7 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Se recomienda no usar tokens de firma de acceso compartido. Evalúe si necesita tokens de firma de acceso compartido para proteger el acceso a los recursos de Blob Storage. Si debe crear una, revise esta lista de prácticas recomendadas para firmas de acceso compartido antes de crearla y distribuirla.</t>
+          <t>Se recomienda no usar tokens de firma de acceso compartido. Evalúe si necesita tokens de firma de acceso compartido para proteger el acceso a los recursos de Blob Storage. Si debe crear una, revise esta lista de prácticas recomendadas para la firma de acceso compartido antes de crearla y distribuirla.</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>Las claves administradas por el cliente proporcionan una mayor flexibilidad y control. Por ejemplo, puede almacenar claves de cifrado en Key Vault y rotarlas automáticamente.</t>
+          <t>Las claves administradas por el cliente proporcionan mayor flexibilidad y control. Por ejemplo, puede almacenar claves de cifrado en Key Vault y rotarlas automáticamente.</t>
         </is>
       </c>
       <c r="E19" s="21" t="n"/>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>Los niveles más esporádicos tienen costos de transferencia de datos más altos. Al tener menos archivos grandes, puede reducir el número de operaciones necesarias para transferir datos.</t>
+          <t>Los niveles de esporádico tienen costos de transferencia de datos más altos. Al tener menos archivos grandes, puede reducir el número de operaciones necesarias para transferir datos.</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1537,7 +1537,7 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Reduzca el costo del uso de registros de recursos eligiendo la ubicación de almacenamiento de registros adecuada y administrando los períodos de retención de registros. Si solo planea consultar registros ocasionalmente (por ejemplo, consultar registros para auditoría de cumplimiento), considere la posibilidad de enviar registros de recursos a una cuenta de almacenamiento en lugar de enviarlos a un área de trabajo de registros de Azure Monitor. Puede usar una solución de consulta sin servidor, como Azure Synapse Analytics, para analizar los registros. Para obtener más información, consulte Optimización del costo para consultas poco frecuentes. Utilice políticas de administración del ciclo de vida para eliminar o archivar registros.</t>
+          <t>Reduzca el costo del uso de registros de recursos eligiendo la ubicación de almacenamiento de registros adecuada y administrando los períodos de retención de registros. Si solo planea consultar registros ocasionalmente (por ejemplo, consultar registros para auditoría de cumplimiento), considere la posibilidad de enviar registros de recursos a una cuenta de almacenamiento en lugar de enviarlos a un área de trabajo de registros de Azure Monitor. Puede usar una solución de consulta sin servidor, como Azure Synapse Analytics, para analizar los registros. Para obtener más información, consulte Optimizar el costo de las consultas poco frecuentes. Utilice las políticas de administración del ciclo de vida para eliminar o archivar registros.</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Cada vez que se sobrescribe un blob, se agrega una nueva versión, lo que aumenta los cargos por capacidad de almacenamiento. Para reducir los cargos de capacidad, almacene los datos sobrescritos con frecuencia en una cuenta de almacenamiento independiente con el control de versiones deshabilitado.</t>
+          <t>Cada vez que se sobrescribe un blob, se agrega una nueva versión, lo que provoca un aumento de los cargos por capacidad de almacenamiento. Para reducir los cargos de capacidad, almacene los datos que se sobrescriben con frecuencia en una cuenta de almacenamiento independiente con el control de versiones deshabilitado.</t>
         </is>
       </c>
       <c r="E24" s="21" t="n"/>
@@ -1639,12 +1639,12 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Si habilita la eliminación temporal, coloque los blobs que se sobrescriben con frecuencia en una cuenta que no tenga habilitada la eliminación temporal. Establecer períodos de retención. Considere comenzar con un período de retención corto para comprender mejor cómo afecta la función a su factura. El período de retención mínimo recomendado es de siete días.</t>
+          <t>Si habilita la eliminación temporal, coloque los blobs que se sobrescriben con frecuencia en una cuenta que no tenga habilitada la eliminación temporal. Establezca períodos de retención. Considere comenzar con un período de retención corto para comprender mejor cómo la función afecta su factura. El período de retención mínimo recomendado es de siete días.</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>Cada vez que se sobrescribe un blob, se crea una nueva instantánea. La causa del aumento de los cargos por capacidad puede ser difícil de acceder porque la creación de estas instantáneas no aparece en los registros. Para reducir los cargos de capacidad, almacene los datos sobrescritos con frecuencia en una cuenta de almacenamiento independiente con la eliminación temporal deshabilitada. Un período de retención evita que los blobs eliminados temporalmente se acumulen y aumenten el costo de la capacidad.</t>
+          <t>Cada vez que se sobrescribe un blob, se crea una nueva instantánea. Es posible que sea difícil acceder a la causa del aumento de los cargos por capacidad, ya que la creación de estas instantáneas no aparece en los registros. Para reducir los cargos de capacidad, almacene los datos que se sobrescriben con frecuencia en una cuenta de almacenamiento independiente con la eliminación temporal deshabilitada. Un período de retención evita que los blobs eliminados temporalmente se acumulen y aumenten el costo de la capacidad.</t>
         </is>
       </c>
       <c r="E25" s="21" t="n"/>
@@ -1806,7 +1806,7 @@
       <c r="B30" s="21" t="n"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione cuentas de almacenamiento en la misma región donde se colocan los recursos dependientes. En el caso de las aplicaciones que no están hospedadas en Azure, como las aplicaciones de dispositivos móviles o los servicios empresariales locales, ubique la cuenta de almacenamiento en una región más cercana a esos clientes. Para más información, consulte Geografías de Azure. Si los clientes de una región diferente no requieren los mismos datos, cree una cuenta independiente en cada región. Si los clientes de una región diferente solo requieren algunos datos, considere la posibilidad de usar una directiva de replicación de objetos para copiar de forma asincrónica los objetos relevantes en una cuenta de almacenamiento de la otra región.</t>
+          <t>Aprovisione cuentas de almacenamiento en la misma región donde se colocan los recursos dependientes. En el caso de las aplicaciones que no están hospedadas en Azure, como aplicaciones de dispositivos móviles o servicios empresariales locales, busque la cuenta de almacenamiento en una región más cercana a esos clientes. Para obtener más información, consulte Geografías de Azure. Si los clientes de una región diferente no requieren los mismos datos, cree una cuenta independiente en cada región. Si los clientes de una región diferente solo requieren algunos datos, considere la posibilidad de usar una directiva de replicación de objetos para copiar objetos relevantes de forma asincrónica en una cuenta de almacenamiento de la otra región.</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
@@ -1906,12 +1906,12 @@
       <c r="B33" s="21" t="n"/>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Al cargar blobs o bloques, use un tamaño de blob o bloque superior a 256 KB.</t>
+          <t>Al cargar blobs o bloques, use un tamaño de blob o bloque superior a 256 KiB.</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>Los tamaños de blob o bloque superiores a 256 KB aprovechan las mejoras de rendimiento de la plataforma, creadas específicamente para blobs y tamaños de bloque más grandes.</t>
+          <t>Los tamaños de blob o bloque superiores a 256 KiB aprovechan las mejoras de rendimiento de la plataforma, creadas específicamente para blobs y tamaños de bloque más grandes.</t>
         </is>
       </c>
       <c r="E33" s="21" t="n"/>
